--- a/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>7.787568113521537</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16.08306987965506</v>
+        <v>16.08306987965507</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.410165705388405</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.381606556428897</v>
+        <v>-2.678314134480092</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.254689246731886</v>
+        <v>1.516046769467647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.32060020284621</v>
+        <v>9.904382571546838</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.445623253529815</v>
+        <v>-0.380840486063976</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.49021226568356</v>
+        <v>7.340380781240433</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>18.18419350338604</v>
+        <v>18.42698852718536</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3646005718733569</v>
+        <v>0.2703505202126812</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.930464227855572</v>
+        <v>6.892221305639545</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>15.58777222271622</v>
+        <v>15.56296276657931</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.49137135950134</v>
+        <v>9.23525466533685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.2885695014163</v>
+        <v>14.58167855794635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.80506655146099</v>
+        <v>23.2874985296983</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.85459231221915</v>
+        <v>14.62211192985555</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>22.16217014122253</v>
+        <v>22.22603198104773</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>31.07609542366876</v>
+        <v>31.5779768490568</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.09558610023261</v>
+        <v>9.936666420839737</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.00831947992754</v>
+        <v>16.44784800358246</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>25.04969125153184</v>
+        <v>25.23302075631741</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5666162420671218</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.17018926618315</v>
+        <v>1.170189266183151</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4053425577533312</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1922025320215744</v>
+        <v>-0.1653556478201565</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.07377973049443304</v>
+        <v>0.09193388230137119</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5473282104339591</v>
+        <v>0.5774880413337706</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02536358753460617</v>
+        <v>-0.01172603757687544</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3540032879852287</v>
+        <v>0.3161364625883817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.817552619936226</v>
+        <v>0.8288360128613724</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01946010524534971</v>
+        <v>0.0147870864866059</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3667444629003904</v>
+        <v>0.382940809108105</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.8284730789990375</v>
+        <v>0.825290738049134</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8695697891241673</v>
+        <v>0.8446401485772298</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.270104549406878</v>
+        <v>1.366258350568922</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.107259901671987</v>
+        <v>2.212223443117969</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9969780030928175</v>
+        <v>1.016280629352574</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.546271883299272</v>
+        <v>1.540065931609144</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.126778103137365</v>
+        <v>2.26842981752532</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7454316472218004</v>
+        <v>0.7100550492248398</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.236192948378931</v>
+        <v>1.210659807248786</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.823015693213798</v>
+        <v>1.91413842377817</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>7.671901733712808</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>17.73118848586189</v>
+        <v>17.7311884858619</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>11.9913407128144</v>
@@ -878,7 +878,7 @@
         <v>7.679932639725054</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>15.74844314145182</v>
+        <v>15.74844314145183</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.076160810009576</v>
+        <v>7.233948382386941</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.279746975616733</v>
+        <v>3.034652099333742</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.805783683701298</v>
+        <v>8.732481181959896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.864539265456015</v>
+        <v>6.801466071917341</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.301582305637519</v>
+        <v>2.189546015695326</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.7341005782371</v>
+        <v>12.50207851553871</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.845091693612225</v>
+        <v>8.455828821501283</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.14882357266596</v>
+        <v>4.424668408206834</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>12.21509762444452</v>
+        <v>11.89965742538978</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.96152094683176</v>
+        <v>16.68986807782041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.07003278204541</v>
+        <v>11.70051049105281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.91575708530538</v>
+        <v>18.85566700203358</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.72034287181652</v>
+        <v>18.12573284611051</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.83027983285195</v>
+        <v>13.57654467700238</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>23.21600313415336</v>
+        <v>22.54351128649355</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.47548172395014</v>
+        <v>15.82725517455749</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.61168465236276</v>
+        <v>11.52104867319379</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>19.24732054392583</v>
+        <v>19.55582876120529</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.3445360195702353</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7962866724847871</v>
+        <v>0.7962866724847876</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.7510022991392681</v>
@@ -983,7 +983,7 @@
         <v>0.480984337598272</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9863048086404097</v>
+        <v>0.98630480864041</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.5612640239154755</v>
+        <v>0.6375941813961348</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2651199755097395</v>
+        <v>0.2393704410288469</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7404384343293701</v>
+        <v>0.7134582344731155</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2817280515252503</v>
+        <v>0.2591643704920079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09253429436508698</v>
+        <v>0.08647719824684696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5112946079062295</v>
+        <v>0.4964168578849819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.434072527104922</v>
+        <v>0.4687934316826162</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2181245586511567</v>
+        <v>0.247045122826824</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6868759869608102</v>
+        <v>0.654174129328892</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.030731210940085</v>
+        <v>2.223834698751201</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.58841237787377</v>
+        <v>1.492378153240231</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.461075778954941</v>
+        <v>2.383724574036898</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8935144278712213</v>
+        <v>0.9332078367538612</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6537367508607473</v>
+        <v>0.6620722440751786</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.200518662202251</v>
+        <v>1.169879754881187</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.08394169183923</v>
+        <v>1.123344030333995</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7999272818395236</v>
+        <v>0.7928627743345141</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.377914790534347</v>
+        <v>1.379745738497146</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>8.812563273949969</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18.45902886176032</v>
+        <v>18.45902886176033</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.570293092643845</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.225928050929149</v>
+        <v>5.580789692674013</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.845678309796483</v>
+        <v>3.451512535517007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.79721191434291</v>
+        <v>12.55436004328836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.577566405079705</v>
+        <v>-3.229710045019744</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.159405973221391</v>
+        <v>-2.470681561766427</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.653867978089606</v>
+        <v>7.232693615119167</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.176466175132113</v>
+        <v>3.13293278752565</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.5829731168318</v>
+        <v>2.01943856488927</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>11.93843167248587</v>
+        <v>12.26378234654885</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.78579917835961</v>
+        <v>17.12040739383245</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.19545922732451</v>
+        <v>14.0644337958703</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.23160639909455</v>
+        <v>24.14526371804436</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.42711331627626</v>
+        <v>11.1400626185335</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.47864352478092</v>
+        <v>11.34951023946743</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.27853345778806</v>
+        <v>20.61807460093997</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.32455897646778</v>
+        <v>12.56833483246503</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.91433359620326</v>
+        <v>11.27930820172806</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.3990062964858</v>
+        <v>21.44526577402516</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.814930316631586</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.706974664169807</v>
+        <v>1.706974664169808</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1244231900370503</v>
@@ -1197,7 +1197,7 @@
         <v>0.3264936503530965</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8215526151595682</v>
+        <v>0.8215526151595679</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4298063054312056</v>
+        <v>0.3938182403710151</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2670025853838306</v>
+        <v>0.2594235771491606</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.888387958052284</v>
+        <v>0.9012382051809832</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1140818613060522</v>
+        <v>-0.09982656135288719</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.09930719994846453</v>
+        <v>-0.08355193455510732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2386684813668117</v>
+        <v>0.2225906435289562</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1414749405417705</v>
+        <v>0.1295424652344822</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06707876541696312</v>
+        <v>0.09058953044744104</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5305604158814982</v>
+        <v>0.5471486917043775</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.062675865738059</v>
+        <v>1.970125299435557</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.662145579693783</v>
+        <v>1.66736131440789</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.964439800504082</v>
+        <v>2.861600279905416</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4181723301148152</v>
+        <v>0.4437193431456608</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4672172300329538</v>
+        <v>0.4403190759039428</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8339920211377765</v>
+        <v>0.8452707861321636</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6905463061928772</v>
+        <v>0.7099199963455538</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5912290215653176</v>
+        <v>0.6285703722993889</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.155777535739541</v>
+        <v>1.213904611500385</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>23.43953938007614</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.0477486883168</v>
+        <v>21.04774868831682</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>11.58103903884001</v>
@@ -1306,7 +1306,7 @@
         <v>18.5669843810724</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>18.12769960346913</v>
+        <v>18.12769960346912</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.554896115399341</v>
+        <v>-0.9858597267435771</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.666190231166364</v>
+        <v>7.300275737560616</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.040887014703751</v>
+        <v>7.767340973285462</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11.36586636421548</v>
+        <v>12.22004240263946</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>17.05472829263521</v>
+        <v>17.15527242079221</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.18616847752205</v>
+        <v>14.57021324711231</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.120953591601811</v>
+        <v>6.898795270041984</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>14.03938602619511</v>
+        <v>13.95437576280034</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>13.37349383094294</v>
+        <v>13.48178840170206</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.902532657347157</v>
+        <v>10.64669014245582</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.54444939390888</v>
+        <v>19.51691640540176</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.623280774494</v>
+        <v>21.88721938303884</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24.36517273645413</v>
+        <v>24.90650608465069</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>30.25468229766091</v>
+        <v>29.87430098397074</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.95065597493262</v>
+        <v>27.35697922249308</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>15.97877117585574</v>
+        <v>16.12347667106378</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>23.25248855021767</v>
+        <v>23.17249196426031</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>22.66209995905129</v>
+        <v>23.31532509411941</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.045508995231985</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.938824361101671</v>
+        <v>0.9388243611016717</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.618300704554135</v>
@@ -1411,7 +1411,7 @@
         <v>0.9912737091863352</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.967820711007062</v>
+        <v>0.9678207110070615</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09679037542656303</v>
+        <v>-0.06948197595420028</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3776453255655748</v>
+        <v>0.4044742161894585</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4015210013049966</v>
+        <v>0.4236406104302686</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4462911858955124</v>
+        <v>0.4746800919161387</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6452912148519842</v>
+        <v>0.6723631150426319</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5615359420789767</v>
+        <v>0.5481413449061298</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3438617259634081</v>
+        <v>0.3348941941007893</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6593792956746066</v>
+        <v>0.659029583523657</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6357048328046359</v>
+        <v>0.6595654879606904</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7939590389127995</v>
+        <v>0.8152590366945881</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.529667728853833</v>
+        <v>1.606890273538867</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.680077378743047</v>
+        <v>1.712167325042193</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.239027591877901</v>
+        <v>1.269406121678169</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.536452708916644</v>
+        <v>1.50784302743813</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.367302897068806</v>
+        <v>1.407140775934235</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9657350079985335</v>
+        <v>0.976506251994353</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.416335110757627</v>
+        <v>1.396717113773288</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.364954229214127</v>
+        <v>1.408684257845133</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>4.444710001299801</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>12.45208482342492</v>
+        <v>12.4520848234249</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>11.08611162632168</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.733394991512582</v>
+        <v>-3.906046271799984</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.251177069324511</v>
+        <v>-7.475235262781307</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07298757187931385</v>
+        <v>0.4200834602863161</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10.06699130454404</v>
+        <v>10.08021883271858</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.356725901534149</v>
+        <v>-4.46581675603502</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.337605562174083</v>
+        <v>4.650108027498892</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.166199340072346</v>
+        <v>5.182387763013111</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.943133591848945</v>
+        <v>-3.665199031665281</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.453565811582146</v>
+        <v>5.101828444081336</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.610083184177935</v>
+        <v>10.70372751834004</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.110792443164923</v>
+        <v>6.059836649034133</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.25360092440676</v>
+        <v>13.85168632909232</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28.36464019286995</v>
+        <v>27.78734368425606</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.46705332205548</v>
+        <v>13.20998244186683</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>20.37580813476804</v>
+        <v>19.80213309960526</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>17.50811521085237</v>
+        <v>16.6242051789174</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.862044054307216</v>
+        <v>7.898861749475014</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.09262560884769</v>
+        <v>15.833938506556</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1760165644287413</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4931195038491974</v>
+        <v>0.4931195038491968</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5605416475920432</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2681451007422335</v>
+        <v>-0.2328088693323734</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4102743474052982</v>
+        <v>-0.4124160000796105</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.002057421191658114</v>
+        <v>0.02292311710365902</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3364932261041663</v>
+        <v>0.3307601018768648</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1459710071954915</v>
+        <v>-0.1495493683314722</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.146481001317468</v>
+        <v>0.1513547398236438</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2113070655434589</v>
+        <v>0.2156756487283717</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1816685625985465</v>
+        <v>-0.1852212727013703</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.194010469020077</v>
+        <v>0.2143636677599958</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9562351804899974</v>
+        <v>0.9992801645928776</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5494052781055183</v>
+        <v>0.556332309198253</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.40139149783236</v>
+        <v>1.310967207585032</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.302161090725049</v>
+        <v>1.374372253910103</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6290449840102348</v>
+        <v>0.6503630944798622</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.010316306499325</v>
+        <v>1.023702252232026</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.054071801447943</v>
+        <v>0.9613444424555848</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4369770635675102</v>
+        <v>0.4639593713397587</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9107561216774938</v>
+        <v>0.9600427457300503</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>0.7536177264654997</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>18.25816609260663</v>
+        <v>18.25816609260662</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>9.59038887414629</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.9534397709417171</v>
+        <v>-0.2921706772580109</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.024521442207782</v>
+        <v>-3.657799940483566</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>8.67585446962306</v>
+        <v>9.422453099434321</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5.14375123933557</v>
+        <v>4.529958855699127</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.952595089407318</v>
+        <v>-6.99588808273981</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>11.21715460554608</v>
+        <v>10.5771558009446</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>4.698420446976595</v>
+        <v>4.684498331078299</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.742727027159238</v>
+        <v>-3.205108830564433</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>11.07185908490092</v>
+        <v>11.4151390720203</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>12.26259271278657</v>
+        <v>11.75723051175362</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.597372657679173</v>
+        <v>8.43934365228394</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21.49700834290805</v>
+        <v>21.47321139848101</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20.93310102974245</v>
+        <v>20.28209875934295</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.839234803301276</v>
+        <v>7.625750497027759</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>25.36039376244571</v>
+        <v>24.32473202407469</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>15.07913107973275</v>
+        <v>14.82330527418377</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.253428531498916</v>
+        <v>6.474573300911328</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>20.95620034550911</v>
+        <v>20.75315028185744</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.03057195723243705</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7406777379611648</v>
+        <v>0.7406777379611643</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5015438721788658</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0663791923885295</v>
+        <v>-0.02426072635058111</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2576220435975944</v>
+        <v>-0.2235131225195056</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5271623816233536</v>
+        <v>0.5559556825224347</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.174529103510258</v>
+        <v>0.166897556956337</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2134819009771581</v>
+        <v>-0.2476162045042309</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.383775122060603</v>
+        <v>0.3754526935943217</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2063225299550865</v>
+        <v>0.2074881196464709</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1765076538433067</v>
+        <v>-0.1549209426704336</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4965050919675821</v>
+        <v>0.5028282009021212</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.207658122653203</v>
+        <v>1.083241363099044</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.8929808922334058</v>
+        <v>0.8489796607065259</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.085332349708569</v>
+        <v>2.062112224985984</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.000821215038203</v>
+        <v>0.9414344760159636</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4277026270991133</v>
+        <v>0.3659666075230668</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.210644354343268</v>
+        <v>1.180089175182405</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8895732852194556</v>
+        <v>0.8691928730441036</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3678592278900848</v>
+        <v>0.387191916328824</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.270735224644858</v>
+        <v>1.234501289962326</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>1.031173285023401</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>16.35772626309796</v>
+        <v>16.35772626309797</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.658606838667999</v>
+        <v>-1.216297001460655</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.141891845728229</v>
+        <v>-2.889718112622324</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7.555361020885752</v>
+        <v>7.771482589903715</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6.453467561398055</v>
+        <v>6.45049937032537</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.583048777037965</v>
+        <v>-3.588616756937712</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>15.26421967735849</v>
+        <v>15.21189746291963</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.093146602327908</v>
+        <v>3.899029972885935</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.177286358439004</v>
+        <v>-1.912521648013467</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>13.1186245405883</v>
+        <v>12.89429790123941</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.829257748465231</v>
+        <v>6.917302910094084</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.755352479310056</v>
+        <v>5.053072956606278</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.98889475262861</v>
+        <v>17.37626057908543</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15.95070287524692</v>
+        <v>15.95281160005558</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.741068549496086</v>
+        <v>5.61672908326312</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>24.34399433908046</v>
+        <v>24.45657401480763</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>10.60085403804608</v>
+        <v>10.28924610055231</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.77477919603926</v>
+        <v>4.237698020274784</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>19.95196215516056</v>
+        <v>19.63268943800472</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.05875736978637723</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.9320809459133436</v>
+        <v>0.9320809459133439</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.09616162213188481</v>
+        <v>-0.0771482964967221</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.196283451352892</v>
+        <v>-0.1850583954873461</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4753311035421143</v>
+        <v>0.4839757624153199</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2845889436434164</v>
+        <v>0.2804256648951213</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1615661635740583</v>
+        <v>-0.1525732094678162</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6599392111571361</v>
+        <v>0.6423267497601618</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2018017610468719</v>
+        <v>0.2082510408844621</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1105067367852686</v>
+        <v>-0.09797732224233764</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.6852357095167292</v>
+        <v>0.6657203287690497</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5644555956183049</v>
+        <v>0.5636227216032931</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4021241793407535</v>
+        <v>0.4109632912343301</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.384085961235868</v>
+        <v>1.449350349796718</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.877715540731715</v>
+        <v>0.8862298103108338</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2993261886819188</v>
+        <v>0.2985253981781074</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.314997517603042</v>
+        <v>1.337602705873123</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6643867043425411</v>
+        <v>0.6281471533129457</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2363928331484196</v>
+        <v>0.2678854202576554</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.258648813524069</v>
+        <v>1.254279047757542</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>6.016016660797469</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.121300555536732</v>
+        <v>3.121300555536743</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.7024772677104385</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-7.284253443732623</v>
+        <v>-6.986452906429907</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.423084919572223</v>
+        <v>-1.368317275264708</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-7.851497266161464</v>
+        <v>-8.018142679014385</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.481057914321425</v>
+        <v>-2.281621885689515</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.344229238567256</v>
+        <v>1.331692859585217</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.132158890124396</v>
+        <v>-0.612884667941745</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.480176417605986</v>
+        <v>-3.441948092678096</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.157457565252291</v>
+        <v>1.173978275626524</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.25563095754722</v>
+        <v>-3.341641323833513</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.219954506084214</v>
+        <v>0.2050711029426538</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.546831779771811</v>
+        <v>6.663586050245806</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.5641673153346856</v>
+        <v>-0.8973123602821141</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.595230421651381</v>
+        <v>6.363400171843326</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>10.60981702469223</v>
+        <v>10.61962225555321</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.087261913393029</v>
+        <v>7.22075818144411</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.337223901389944</v>
+        <v>2.355490083836369</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>7.335946943463331</v>
+        <v>7.385201281895511</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.161364227227097</v>
+        <v>2.081451808619091</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.2214033064783777</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1148710687608075</v>
+        <v>0.1148710687608079</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.03113774539728584</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3644539039215242</v>
+        <v>-0.3597284330086122</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.07325460067116875</v>
+        <v>-0.07307710424459107</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4032356146338652</v>
+        <v>-0.4132211974256895</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.0826249565875212</v>
+        <v>-0.07780474479676089</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.04210725501987345</v>
+        <v>0.0442112085004253</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.03516418081410844</v>
+        <v>-0.02081713988291928</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1442871248039691</v>
+        <v>-0.1438634318145161</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.04745100872382927</v>
+        <v>0.0493574696599005</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1379985763321218</v>
+        <v>-0.1403511244675334</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01582786725265837</v>
+        <v>0.01364323396959792</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4157894574331711</v>
+        <v>0.4250524442722475</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.03888317079513309</v>
+        <v>-0.05337890354488709</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2694527591036247</v>
+        <v>0.2537153448488095</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4298763510195505</v>
+        <v>0.4265368183446753</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2903216455816875</v>
+        <v>0.2949213024713373</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.113915989844608</v>
+        <v>0.1107029603870497</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.350111693049076</v>
+        <v>0.3420313199355756</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.107039120174047</v>
+        <v>0.09537813031792672</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.150560799385668</v>
+        <v>2.228881140274759</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>3.091722469710896</v>
+        <v>3.057680793344609</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>7.800831020961314</v>
+        <v>7.651272725259939</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>7.285996682191112</v>
+        <v>7.537409274615947</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>5.076666116607477</v>
+        <v>5.159124666915345</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>13.02870841845898</v>
+        <v>13.19118549122713</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>5.549575527249776</v>
+        <v>5.304978629300044</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>4.674283788485592</v>
+        <v>4.650977681145337</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>11.10984666839432</v>
+        <v>11.15171187362563</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.725562770126105</v>
+        <v>5.873161474493626</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>6.74894163396426</v>
+        <v>6.668203083323536</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>11.62602270428649</v>
+        <v>11.79633244132916</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>11.68746482335273</v>
+        <v>11.75638295278548</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>9.374087930305334</v>
+        <v>9.37972226000011</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>17.17815230636925</v>
+        <v>17.02927322227879</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>8.577060026472957</v>
+        <v>8.282517064271508</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>7.560872717501672</v>
+        <v>7.535569118906229</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>13.92537702576641</v>
+        <v>14.09377702654206</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.3239973177611016</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.6641635334193358</v>
+        <v>0.6641635334193354</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1475603628510829</v>
+        <v>0.1505212661979479</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2079829034990322</v>
+        <v>0.204043776352453</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.5300690996016858</v>
+        <v>0.5231458132225607</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2892218437141751</v>
+        <v>0.3041069382453951</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2020824043715079</v>
+        <v>0.2057789036580335</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5168122435118203</v>
+        <v>0.5298403813935531</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2818411555407508</v>
+        <v>0.2693511496184428</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2329831573456493</v>
+        <v>0.2355401178590462</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.5662435152159154</v>
+        <v>0.5650503243932785</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4302945924920838</v>
+        <v>0.4624737578971002</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.5180621002093266</v>
+        <v>0.5122724282163144</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.8853213928548082</v>
+        <v>0.9049922396141252</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5134630918926578</v>
+        <v>0.5243680562672816</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4166769300876279</v>
+        <v>0.4098845057489809</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.7593852329034271</v>
+        <v>0.7528568194297011</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.4685697386885468</v>
+        <v>0.448637008045232</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.4116885355518602</v>
+        <v>0.4118770906458431</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.7639721661467586</v>
+        <v>0.7677126636198033</v>
       </c>
     </row>
     <row r="58">
